--- a/ocms/src/test/resources/DownloadedFiles/CEP Event Mapping (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/CEP Event Mapping (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t xml:space="preserve">CEP Event</t>
   </si>
@@ -64,6 +64,24 @@
     <t xml:space="preserve">BENGTETH\Administrator</t>
   </si>
   <si>
+    <t xml:space="preserve">1919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product OCM Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntentHome</t>
+  </si>
+  <si>
     <t xml:space="preserve">2134</t>
   </si>
   <si>
@@ -76,9 +94,6 @@
     <t xml:space="preserve">345</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">intent1</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">product2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
   </si>
   <si>
     <t xml:space="preserve">56789</t>
@@ -183,11 +195,11 @@
   <sheetFormatPr x14ac:dyDescent="0.25" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="1" width="9.714285714285714" bestFit="1"/>
-    <col min="2" max="2" customWidth="1" width="12.714285714285714" bestFit="1"/>
+    <col min="2" max="2" customWidth="1" width="19.714285714285715" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="12.714285714285714" bestFit="1"/>
     <col min="4" max="4" customWidth="1" width="5.714285714285714" bestFit="1"/>
     <col min="5" max="5" customWidth="1" width="13.714285714285714" bestFit="1"/>
-    <col min="6" max="6" customWidth="1" width="7.714285714285714" bestFit="1"/>
+    <col min="6" max="6" customWidth="1" width="10.714285714285714" bestFit="1"/>
     <col min="7" max="7" customWidth="1" width="22.714285714285715" bestFit="1"/>
     <col min="8" max="8" customWidth="1" width="55.714285714285715" bestFit="1"/>
   </cols>
@@ -267,7 +279,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="2">
-        <v>43609.50641203704</v>
+        <v>43616.56202546296</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
@@ -293,7 +305,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="2">
-        <v>43609.50690972222</v>
+        <v>43609.50641203704</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -304,21 +316,47 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43609.50690972222</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2">
         <v>43511.60780092593</v>
       </c>
     </row>

--- a/ocms/src/test/resources/DownloadedFiles/CEP Event Mapping (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/CEP Event Mapping (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t xml:space="preserve">CEP Event</t>
   </si>
@@ -85,13 +85,7 @@
     <t xml:space="preserve">IntentHome</t>
   </si>
   <si>
-    <t xml:space="preserve">02/09/2019 14:41:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product OCM Updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/05/2019 13:29:09</t>
+    <t xml:space="preserve">04/09/2019 11:18:15</t>
   </si>
   <si>
     <t xml:space="preserve">2134</t>
@@ -125,24 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">24/05/2019 12:09:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/02/2019 14:35:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/07/2019 15:12:20</t>
   </si>
 </sst>
 </file>
@@ -219,7 +195,7 @@
   <sheetFormatPr x14ac:dyDescent="0.25" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="1" width="9.714285714285714" bestFit="1"/>
-    <col min="2" max="2" customWidth="1" width="19.714285714285715" bestFit="1"/>
+    <col min="2" max="2" customWidth="1" width="12.714285714285714" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="12.714285714285714" bestFit="1"/>
     <col min="4" max="4" customWidth="1" width="5.714285714285714" bestFit="1"/>
     <col min="5" max="5" customWidth="1" width="13.714285714285714" bestFit="1"/>
@@ -308,132 +284,54 @@
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
